--- a/011.xlsx
+++ b/011.xlsx
@@ -824,7 +824,7 @@
     <t>USBUS</t>
   </si>
   <si>
-    <t>U</t>
+    <t>unknown</t>
   </si>
   <si>
     <t>nr</t>
